--- a/data/output/FV2504_FV2410/UTILMD/55023.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55023.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="190">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="190">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -713,6 +713,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U73" totalsRowShown="0">
+  <autoFilter ref="A1:U73"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,7 +1032,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4390,5 +4423,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55023.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55023.xlsx
@@ -910,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -933,6 +933,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -941,6 +944,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1749,7 +1755,7 @@
         <v>176</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1997,7 +2003,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2199,7 +2205,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2507,7 +2513,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2707,7 +2713,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3081,7 +3087,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3389,7 +3395,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3571,26 +3577,26 @@
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M45" s="5"/>
@@ -3608,33 +3614,33 @@
       <c r="A46" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M46" s="5"/>
@@ -3652,33 +3658,33 @@
       <c r="A47" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M47" s="5"/>
@@ -3706,29 +3712,29 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11" t="s">
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3744,35 +3750,35 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="V49" s="11"/>
+      <c r="U49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -3788,57 +3794,57 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="V50" s="11"/>
+      <c r="U50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>174</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -3847,23 +3853,23 @@
       <c r="L51" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P51" s="5"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>174</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -4067,7 +4073,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4267,7 +4273,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4455,22 +4461,22 @@
       <c r="B63" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M63" s="5"/>
@@ -4488,27 +4494,27 @@
       <c r="A64" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M64" s="5"/>
@@ -4526,33 +4532,33 @@
       <c r="A65" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="J65" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M65" s="5"/>
@@ -4573,20 +4579,20 @@
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M66" s="5"/>
@@ -4604,27 +4610,27 @@
       <c r="A67" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M67" s="5"/>
@@ -4642,33 +4648,33 @@
       <c r="A68" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="J68" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M68" s="5"/>
@@ -4686,33 +4692,33 @@
       <c r="A69" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8" t="s">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="J69" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="5"/>
@@ -4730,31 +4736,31 @@
       <c r="A70" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M70" s="5"/>
@@ -4769,48 +4775,48 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5" t="s">
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
